--- a/02-Boole/Exercices Algebre Boole.xlsx
+++ b/02-Boole/Exercices Algebre Boole.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlancesseur\Documents\Maths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlancesseur\Documents\GitHub\ABC2403_Remi\02-Boole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3AF577-49D1-408A-8449-C67E133EB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5FE09-9851-477C-9FCB-471388495FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{0CD072DE-E4A3-4601-8F9F-CBEDD39A75A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>P2</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>P1 = P2+P3.P4</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A = P</t>
+  </si>
+  <si>
+    <t>B = SM</t>
+  </si>
+  <si>
+    <t>C = M</t>
+  </si>
+  <si>
+    <t>D = A</t>
+  </si>
+  <si>
+    <t>R =  NON A.NON B.C.NON D + NON A. NON B.C.D + NON A.B.NON C.D +NON A.B.C.NON D + NON A.B.C.D + A.NON B.C.NON D + A.NON B.C.D + A.B.C.D</t>
   </si>
 </sst>
 </file>
@@ -106,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,30 +150,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,39 +523,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D521770-5FEE-486D-919D-8FB8E5CD9ACF}">
-  <dimension ref="A2:S24"/>
+  <dimension ref="A2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
@@ -530,7 +566,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -538,7 +574,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -546,7 +582,7 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -554,492 +590,822 @@
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>1</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="K15" s="3" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="P15" s="3" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="P2:S2"/>
@@ -1047,12 +1413,6 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="P15:S15"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
